--- a/Reference Files/region.xlsx
+++ b/Reference Files/region.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>us_west</t>
   </si>
@@ -142,6 +142,81 @@
   </si>
   <si>
     <t>Chennai</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>OCE</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Region_Clean</t>
+  </si>
+  <si>
+    <t>US West</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>US East</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>US Southeast</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>EU West</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>EU North</t>
+  </si>
+  <si>
+    <t>US Southwest</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>EU East</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>India East</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
   </si>
 </sst>
 </file>
@@ -480,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,9 +567,10 @@
     <col min="2" max="2" width="30.140625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -507,8 +583,14 @@
       <c r="D1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -521,8 +603,14 @@
       <c r="D2">
         <v>-122.3321</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -535,8 +623,14 @@
       <c r="D3">
         <v>139.83949999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -549,8 +643,14 @@
       <c r="D4">
         <v>151.2099</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -563,8 +663,14 @@
       <c r="D5">
         <v>-77.429100000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -577,8 +683,14 @@
       <c r="D6">
         <v>-77.0428</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -591,8 +703,14 @@
       <c r="D7">
         <v>28.034099999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -605,8 +723,14 @@
       <c r="D8">
         <v>103.852</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -619,8 +743,14 @@
       <c r="D9">
         <v>-84.386300000000006</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -633,8 +763,14 @@
       <c r="D10">
         <v>-46.625300000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -647,8 +783,14 @@
       <c r="D11">
         <v>-70.673699999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -661,8 +803,14 @@
       <c r="D12">
         <v>6.1318999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -675,8 +823,14 @@
       <c r="D13">
         <v>21.017499999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -689,8 +843,14 @@
       <c r="D14">
         <v>18.063199999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -703,8 +863,14 @@
       <c r="D15">
         <v>-118.2437</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -717,8 +883,14 @@
       <c r="D16">
         <v>-3.7038000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -731,8 +903,14 @@
       <c r="D17">
         <v>16.363399999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -745,8 +923,14 @@
       <c r="D18">
         <v>72.877399999999994</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -759,8 +943,14 @@
       <c r="D19">
         <v>80.2376</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -772,6 +962,12 @@
       </c>
       <c r="D20">
         <v>114.1772</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Reference Files/region.xlsx
+++ b/Reference Files/region.xlsx
@@ -144,9 +144,6 @@
     <t>Chennai</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Region Group</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,6 +567,7 @@
     <col min="2" max="2" width="30.140625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -584,10 +585,10 @@
         <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -604,10 +605,10 @@
         <v>-122.3321</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -624,10 +625,10 @@
         <v>139.83949999999999</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -644,10 +645,10 @@
         <v>151.2099</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -664,10 +665,10 @@
         <v>-77.429100000000005</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -684,10 +685,10 @@
         <v>-77.0428</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -704,10 +705,10 @@
         <v>28.034099999999999</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -724,10 +725,10 @@
         <v>103.852</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -744,10 +745,10 @@
         <v>-84.386300000000006</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -764,10 +765,10 @@
         <v>-46.625300000000003</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -784,10 +785,10 @@
         <v>-70.673699999999997</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -804,10 +805,10 @@
         <v>6.1318999999999999</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -824,10 +825,10 @@
         <v>21.017499999999998</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -844,10 +845,10 @@
         <v>18.063199999999998</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -864,10 +865,10 @@
         <v>-118.2437</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -884,10 +885,10 @@
         <v>-3.7038000000000002</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -904,10 +905,10 @@
         <v>16.363399999999999</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -924,10 +925,10 @@
         <v>72.877399999999994</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -944,10 +945,10 @@
         <v>80.2376</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -964,10 +965,10 @@
         <v>114.1772</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
